--- a/doc/数据结构.xlsx
+++ b/doc/数据结构.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Vue\project_inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huozhihui/Development/vue/project_inventory/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F988744C-24E0-0246-BC0E-05016CD6A7EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="库存管理" sheetId="2" r:id="rId1"/>
@@ -22,17 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="116">
   <si>
     <t>中文字段</t>
   </si>
@@ -208,9 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单编号</t>
-  </si>
-  <si>
     <t>oid</t>
   </si>
   <si>
@@ -223,215 +216,224 @@
     <t>订单状态</t>
   </si>
   <si>
+    <t>销售编号</t>
+  </si>
+  <si>
+    <t>sale_id</t>
+  </si>
+  <si>
+    <t>interger</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>财务单号</t>
+  </si>
+  <si>
+    <t>finance_id</t>
+  </si>
+  <si>
+    <t>送货单号</t>
+  </si>
+  <si>
+    <t>send_id</t>
+  </si>
+  <si>
+    <t>产品售价</t>
+  </si>
+  <si>
+    <t>产品数量</t>
+  </si>
+  <si>
+    <t>产品总价</t>
+  </si>
+  <si>
+    <t>sale_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>发票号</t>
+  </si>
+  <si>
+    <t>invoice_num</t>
+  </si>
+  <si>
+    <t>开单日期</t>
+  </si>
+  <si>
+    <t>receipt_data</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>单据状态</t>
+  </si>
+  <si>
+    <t>receipt_status</t>
+  </si>
+  <si>
+    <t>经办人</t>
+  </si>
+  <si>
+    <t>operator_man</t>
+  </si>
+  <si>
+    <t>审核人</t>
+  </si>
+  <si>
+    <t>review_man</t>
+  </si>
+  <si>
+    <t>财务管理表(finances)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receipt_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:付款； 1:收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplier_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator_man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>order_status</t>
-  </si>
-  <si>
-    <t>销售编号</t>
-  </si>
-  <si>
-    <t>sale_id</t>
-  </si>
-  <si>
-    <t>interger</t>
-  </si>
-  <si>
-    <t>customer_id</t>
-  </si>
-  <si>
-    <t>财务单号</t>
-  </si>
-  <si>
-    <t>finance_id</t>
-  </si>
-  <si>
-    <t>送货单号</t>
-  </si>
-  <si>
-    <t>send_id</t>
-  </si>
-  <si>
-    <t>产品售价</t>
-  </si>
-  <si>
-    <t>产品数量</t>
-  </si>
-  <si>
-    <t>产品总价</t>
-  </si>
-  <si>
-    <t>sale_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fid</t>
-  </si>
-  <si>
-    <t>customer_name</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>发票号</t>
-  </si>
-  <si>
-    <t>invoice_num</t>
-  </si>
-  <si>
-    <t>开单日期</t>
-  </si>
-  <si>
-    <t>receipt_data</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>单据状态</t>
-  </si>
-  <si>
-    <t>receipt_status</t>
-  </si>
-  <si>
-    <t>经办人</t>
-  </si>
-  <si>
-    <t>operator_man</t>
-  </si>
-  <si>
-    <t>审核人</t>
-  </si>
-  <si>
-    <t>review_man</t>
-  </si>
-  <si>
-    <t>财务管理表(finances)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receipt_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:付款； 1:收款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属行业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>city</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>industry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplier_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经办人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator_man</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="12"/>
@@ -922,20 +924,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="5" width="15.84375" customWidth="1"/>
-    <col min="7" max="11" width="15.84375" customWidth="1"/>
+    <col min="1" max="5" width="15.83203125" customWidth="1"/>
+    <col min="7" max="11" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
@@ -944,7 +946,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="16.5">
+    <row r="2" spans="1:5" ht="18">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -961,7 +963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5">
+    <row r="3" spans="1:5" ht="17">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -974,7 +976,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" ht="17">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -987,7 +989,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="17">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1000,7 +1002,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="17">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1013,7 +1015,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="17">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1028,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="17">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1039,28 +1041,28 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="17">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" ht="17">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5">
+    <row r="11" spans="1:5" ht="17">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5">
+    <row r="12" spans="1:5" ht="18">
       <c r="A12" s="9" t="s">
         <v>43</v>
       </c>
@@ -1069,7 +1071,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5">
+    <row r="13" spans="1:5" ht="18">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5">
+    <row r="14" spans="1:5" ht="17">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1099,7 +1101,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5">
+    <row r="15" spans="1:5" ht="17">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -1112,7 +1114,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5">
+    <row r="16" spans="1:5" ht="17">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1125,7 +1127,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5">
+    <row r="17" spans="1:11" ht="17">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1138,7 +1140,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5">
+    <row r="18" spans="1:11" ht="17">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -1151,7 +1153,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="16.5">
+    <row r="19" spans="1:11" ht="17">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -1164,12 +1166,12 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="16.5">
+    <row r="20" spans="1:11" ht="17">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>24</v>
@@ -1177,14 +1179,14 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="16.5">
+    <row r="21" spans="1:11" ht="17">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="16.5">
+    <row r="24" spans="1:11" ht="18">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -1200,7 +1202,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:11" ht="16.5">
+    <row r="25" spans="1:11" ht="18">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16.5">
+    <row r="26" spans="1:11" ht="17">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
@@ -1256,12 +1258,12 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="16.5">
+    <row r="27" spans="1:11" ht="17">
       <c r="A27" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>23</v>
@@ -1280,7 +1282,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="16.5">
+    <row r="28" spans="1:11" ht="17">
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
@@ -1304,7 +1306,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="16.5">
+    <row r="29" spans="1:11" ht="17">
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
@@ -1328,12 +1330,12 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="16.5">
+    <row r="30" spans="1:11" ht="17">
       <c r="A30" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>21</v>
@@ -1344,7 +1346,7 @@
         <v>48</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>21</v>
@@ -1352,12 +1354,12 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" ht="16.5">
+    <row r="31" spans="1:11" ht="17">
       <c r="A31" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>22</v>
@@ -1368,7 +1370,7 @@
         <v>49</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>22</v>
@@ -1376,7 +1378,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="16.5">
+    <row r="32" spans="1:11" ht="17">
       <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
@@ -1400,7 +1402,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5">
+    <row r="33" spans="1:11" ht="17">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
@@ -1424,7 +1426,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5">
+    <row r="34" spans="1:11" ht="17">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -1448,7 +1450,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5">
+    <row r="35" spans="1:11" ht="17">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -1479,19 +1481,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="5" width="15.84375" customWidth="1"/>
-    <col min="7" max="7" width="15.84375" customWidth="1"/>
-    <col min="8" max="8" width="19.84375" customWidth="1"/>
-    <col min="9" max="11" width="15.84375" customWidth="1"/>
+    <col min="1" max="5" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="9" max="11" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1">
@@ -1510,7 +1512,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
+    <row r="2" spans="1:11" ht="18">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1542,12 +1544,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5">
+    <row r="3" spans="1:11" ht="17">
       <c r="A3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>23</v>
@@ -1556,7 +1558,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
       <c r="G3" s="4" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>17</v>
@@ -1567,15 +1569,15 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5">
+    <row r="4" spans="1:11" ht="17">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1592,24 +1594,24 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5">
+    <row r="5" spans="1:11" ht="17">
       <c r="A5" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
       <c r="G5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>22</v>
@@ -1617,24 +1619,24 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5">
+    <row r="6" spans="1:11" ht="17">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
       <c r="G6" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>23</v>
@@ -1642,24 +1644,24 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5">
+    <row r="7" spans="1:11" ht="17">
       <c r="A7" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
       <c r="G7" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>24</v>
@@ -1667,31 +1669,31 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5">
+    <row r="8" spans="1:11" ht="17">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5">
+    <row r="9" spans="1:11" ht="17">
       <c r="A9" s="4" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>23</v>
@@ -1705,12 +1707,12 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5">
+    <row r="10" spans="1:11" ht="17">
       <c r="A10" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>23</v>
@@ -1724,15 +1726,15 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" ht="17">
       <c r="A11" s="4" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1740,8 +1742,27 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="17">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1754,22 +1775,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="6" max="6" width="29.15234375" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1777,7 +1798,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" ht="16.5">
+    <row r="2" spans="1:6" ht="18">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1791,18 +1812,18 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5">
+    <row r="3" spans="1:6" ht="17">
       <c r="A3" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>23</v>
@@ -1811,12 +1832,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
+    <row r="4" spans="1:6" ht="17">
       <c r="A4" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>23</v>
@@ -1825,12 +1846,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="17">
       <c r="A5" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>23</v>
@@ -1839,12 +1860,12 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
+    <row r="6" spans="1:6" ht="17">
       <c r="A6" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>22</v>
@@ -1853,12 +1874,12 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5">
+    <row r="7" spans="1:6" ht="17">
       <c r="A7" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>24</v>
@@ -1867,12 +1888,12 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5">
+    <row r="8" spans="1:6" ht="17">
       <c r="A8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>22</v>
@@ -1881,26 +1902,26 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5">
+    <row r="9" spans="1:6" ht="17">
       <c r="A9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5">
+    <row r="10" spans="1:6" ht="17">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>22</v>
@@ -1909,30 +1930,30 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5">
+    <row r="11" spans="1:6" ht="17">
       <c r="A11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17">
       <c r="A12" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>22</v>
@@ -1941,12 +1962,12 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5">
+    <row r="13" spans="1:6" ht="17">
       <c r="A13" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>22</v>
@@ -1955,7 +1976,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5">
+    <row r="14" spans="1:6" ht="17">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -1979,19 +2000,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="5" width="15.84375" customWidth="1"/>
+    <col min="1" max="5" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2000,7 +2021,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="16.5">
+    <row r="2" spans="1:5" ht="18">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2017,7 +2038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5">
+    <row r="3" spans="1:5" ht="17">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2030,25 +2051,25 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" ht="17">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="17">
       <c r="A5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>22</v>
@@ -2056,20 +2077,20 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="17">
       <c r="A6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="17">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -2082,12 +2103,12 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="17">
       <c r="A8" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>22</v>
@@ -2095,9 +2116,9 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="17">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -2108,7 +2129,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" ht="17">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -2121,7 +2142,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5">
+    <row r="11" spans="1:5" ht="17">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>

--- a/doc/数据结构.xlsx
+++ b/doc/数据结构.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huozhihui/Development/vue/project_inventory/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F988744C-24E0-0246-BC0E-05016CD6A7EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E84371-4EA3-8B4F-83CB-F0BB453D0D5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="122">
   <si>
     <t>中文字段</t>
   </si>
@@ -159,10 +159,6 @@
     <t>进价</t>
   </si>
   <si>
-    <t>产品入库表(product-in-stocks)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pcode</t>
   </si>
   <si>
@@ -204,9 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>oid</t>
-  </si>
-  <si>
     <t>订单日期</t>
   </si>
   <si>
@@ -231,15 +224,6 @@
     <t>财务单号</t>
   </si>
   <si>
-    <t>finance_id</t>
-  </si>
-  <si>
-    <t>送货单号</t>
-  </si>
-  <si>
-    <t>send_id</t>
-  </si>
-  <si>
     <t>产品售价</t>
   </si>
   <si>
@@ -422,11 +406,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>order_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>收货地址</t>
+  </si>
+  <si>
+    <t>产品入库表(product_in_stocks)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送货表(order_ship)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consignee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,7 +953,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="A24" sqref="A24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1007,7 +1032,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
@@ -1033,7 +1058,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>25</v>
@@ -1064,7 +1089,7 @@
     </row>
     <row r="12" spans="1:5" ht="18">
       <c r="A12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1090,10 +1115,10 @@
     </row>
     <row r="14" spans="1:5" ht="17">
       <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>23</v>
@@ -1119,7 +1144,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
@@ -1132,7 +1157,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>24</v>
@@ -1168,10 +1193,10 @@
     </row>
     <row r="20" spans="1:11" ht="17">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>24</v>
@@ -1188,14 +1213,14 @@
     </row>
     <row r="24" spans="1:11" ht="18">
       <c r="A24" s="9" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
       <c r="G24" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -1236,10 +1261,10 @@
     </row>
     <row r="26" spans="1:11" ht="17">
       <c r="A26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>23</v>
@@ -1247,10 +1272,10 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>23</v>
@@ -1260,10 +1285,10 @@
     </row>
     <row r="27" spans="1:11" ht="17">
       <c r="A27" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>23</v>
@@ -1311,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>22</v>
@@ -1322,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>22</v>
@@ -1332,10 +1357,10 @@
     </row>
     <row r="30" spans="1:11" ht="17">
       <c r="A30" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>21</v>
@@ -1343,10 +1368,10 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>21</v>
@@ -1356,10 +1381,10 @@
     </row>
     <row r="31" spans="1:11" ht="17">
       <c r="A31" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>22</v>
@@ -1367,10 +1392,10 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>22</v>
@@ -1383,7 +1408,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>24</v>
@@ -1482,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1546,38 +1571,38 @@
     </row>
     <row r="3" spans="1:11" ht="17">
       <c r="A3" s="4" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
       <c r="G3" s="4" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="17">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1596,22 +1621,22 @@
     </row>
     <row r="5" spans="1:11" ht="17">
       <c r="A5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
       <c r="G5" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>22</v>
@@ -1621,22 +1646,22 @@
     </row>
     <row r="6" spans="1:11" ht="17">
       <c r="A6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
       <c r="G6" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>23</v>
@@ -1646,22 +1671,22 @@
     </row>
     <row r="7" spans="1:11" ht="17">
       <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
       <c r="G7" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>24</v>
@@ -1671,32 +1696,32 @@
     </row>
     <row r="8" spans="1:11" ht="17">
       <c r="A8" s="4" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="17">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1704,73 +1729,148 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="17">
-      <c r="A10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="18">
+      <c r="A14" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" ht="18">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="17">
+      <c r="A17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="17">
+      <c r="A18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="17">
-      <c r="A11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="17">
-      <c r="A12" s="4" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="17">
+      <c r="A19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="17">
+      <c r="A20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="17">
+      <c r="A21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="17">
+      <c r="A22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="17">
+      <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1779,7 +1879,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1790,7 +1890,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18">
       <c r="A1" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1812,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
@@ -1820,10 +1920,10 @@
     </row>
     <row r="3" spans="1:6" ht="17">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>23</v>
@@ -1834,10 +1934,10 @@
     </row>
     <row r="4" spans="1:6" ht="17">
       <c r="A4" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>23</v>
@@ -1848,10 +1948,10 @@
     </row>
     <row r="5" spans="1:6" ht="17">
       <c r="A5" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>23</v>
@@ -1862,10 +1962,10 @@
     </row>
     <row r="6" spans="1:6" ht="17">
       <c r="A6" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>22</v>
@@ -1876,10 +1976,10 @@
     </row>
     <row r="7" spans="1:6" ht="17">
       <c r="A7" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>24</v>
@@ -1890,10 +1990,10 @@
     </row>
     <row r="8" spans="1:6" ht="17">
       <c r="A8" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>22</v>
@@ -1904,13 +2004,13 @@
     </row>
     <row r="9" spans="1:6" ht="17">
       <c r="A9" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1918,10 +2018,10 @@
     </row>
     <row r="10" spans="1:6" ht="17">
       <c r="A10" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>22</v>
@@ -1932,28 +2032,28 @@
     </row>
     <row r="11" spans="1:6" ht="17">
       <c r="A11" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17">
       <c r="A12" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>22</v>
@@ -1964,10 +2064,10 @@
     </row>
     <row r="13" spans="1:6" ht="17">
       <c r="A13" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>22</v>
@@ -2053,23 +2153,23 @@
     </row>
     <row r="4" spans="1:5" ht="17">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="17">
       <c r="A5" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>22</v>
@@ -2079,13 +2179,13 @@
     </row>
     <row r="6" spans="1:5" ht="17">
       <c r="A6" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2105,10 +2205,10 @@
     </row>
     <row r="8" spans="1:5" ht="17">
       <c r="A8" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>22</v>
@@ -2118,7 +2218,7 @@
     </row>
     <row r="9" spans="1:5" ht="17">
       <c r="A9" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
